--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,17 +27,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for가 시작될때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 num1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 intSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6+7+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6+7+8+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6+7+8+9+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+4+2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+6+4+2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(num+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>num1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(num+1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,9 +172,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,6 +228,135 @@
         <a:xfrm>
           <a:off x="0" y="209550"/>
           <a:ext cx="3400425" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="3429000" cy="1114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>652895</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3396095" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695574" y="161924"/>
+          <a:ext cx="2820401" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -410,21 +633,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="6:8" x14ac:dyDescent="0.3">
@@ -535,6 +758,116 @@
       </c>
       <c r="H11">
         <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -543,4 +876,336 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="26.25" customWidth="1"/>
+    <col min="11" max="11" width="4.125" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>num1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,13 +338,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>29575</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>334375</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -355,7 +363,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2695574" y="161924"/>
+          <a:off x="2571749" y="161924"/>
           <a:ext cx="2820401" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1072,7 +1080,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1087,6 +1095,9 @@
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1095,7 +1106,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1106,7 +1117,7 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1115,9 +1126,9 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1126,9 +1137,9 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1137,9 +1148,9 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1160,7 +1171,9 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -180,12 +181,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1221,4 +1225,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="2">
+        <v>4789800</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -1232,7 +1232,7 @@
   <dimension ref="C1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +136,42 @@
   </si>
   <si>
     <t>i + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+4+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+4+6+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+4+6+8+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5+7+9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1084,7 +1121,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1231,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1317,4 +1354,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>1+3+5+7+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1365,7 @@
   <dimension ref="C1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1385,9 @@
         <v>27</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1">

--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +177,94 @@
   </si>
   <si>
     <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+12+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+12+15+18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+12+15+18+21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+12+15+18+21+24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+12+15+18+21+24+27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+12+15+18+21+24+27+30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3의 배수가 아닌 수들의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+8+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+8+10+11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+8+10+11+13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+8+10+11+13+14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3의 배수인 수들의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+8+10+11+13+14+16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+8+10+11+13+14+16+17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,7 +1453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1511,4 +1600,386 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="1">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="1">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="1">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +266,37 @@
   </si>
   <si>
     <t>7+8+10+11+13+14+16+17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bYes1 &amp;&amp; bYes2</t>
+  </si>
+  <si>
+    <t>num%3 ==0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num%9 == 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1606,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1982,4 +2014,575 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="7" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +299,9 @@
   <si>
     <t>num%9 == 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1부터 100까지 임의 수 100개중 짝수의 합 : 1900</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2585,4 +2589,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>26</v>
+      </c>
+      <c r="D1" t="e">
+        <f>INT(A1 D4B1)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -2593,15 +2593,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>26</v>
       </c>
@@ -2609,220 +2609,749 @@
         <f>INT(A1 D4B1)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1">
+        <v>58</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>94</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>96</v>
+      </c>
+      <c r="G15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>96</v>
+      </c>
+      <c r="G16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>89</v>
+      </c>
+      <c r="G21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>84</v>
+      </c>
+      <c r="G23">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>48</v>
+      </c>
+      <c r="G24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>80</v>
+      </c>
+      <c r="G26">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>79</v>
+      </c>
+      <c r="G27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>83</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>91</v>
+      </c>
+      <c r="G31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>53</v>
+      </c>
+      <c r="G33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>78</v>
+      </c>
+      <c r="G34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>82</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>80</v>
+      </c>
+      <c r="G39">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
+      </c>
+      <c r="F44">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +303,30 @@
   </si>
   <si>
     <t>1부터 100까지 임의 수 100개중 짝수의 합 : 1900</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -945,6 +970,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
@@ -2595,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>

--- a/for 반복문 풀이.xlsx
+++ b/for 반복문 풀이.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +327,10 @@
   </si>
   <si>
     <t>성춘향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1004,6 +1009,189 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
